--- a/informe de prueba.xlsx
+++ b/informe de prueba.xlsx
@@ -172,13 +172,13 @@
     <t>***** ERROR EN LOS DATOS DE GENSALE.PRN ***** NO SE ENCUENTRA LA BARRA 98017  SGDEHI1413.8</t>
   </si>
   <si>
-    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 99 U.T.E NO POSEE SYSTEMA</t>
-  </si>
-  <si>
-    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 18 A.N.D.E. NO POSEE SYSTEMA</t>
-  </si>
-  <si>
-    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 20 BRASIL NO POSEE SYSTEMA</t>
+    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 99 U.T.E NO POSEE SISTEMA</t>
+  </si>
+  <si>
+    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 18 A.N.D.E. NO POSEE SISTEMA</t>
+  </si>
+  <si>
+    <t>***** ERROR EN LOS DATOS DE reserva_DEMANDAS ***** EL AREA INDICADA COMO 20 BRASIL NO POSEE SISTEMA</t>
   </si>
 </sst>
 </file>
